--- a/Other Files/Character Animations.xlsx
+++ b/Other Files/Character Animations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ch0m5 Database\ch0m5\Documents\GitHub\TheWitcher\Other Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A764EC-457D-4FBF-8F1B-A82A7FB64E39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3497B24-2AE4-4849-9107-78E37A98829A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3045" yWindow="675" windowWidth="22305" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>Geralt</t>
   </si>
@@ -121,6 +121,36 @@
   </si>
   <si>
     <t>All current Great Sword ones (already added)</t>
+  </si>
+  <si>
+    <t>Jaskier Abilities</t>
+  </si>
+  <si>
+    <t>Damage Line</t>
+  </si>
+  <si>
+    <t>Movement + Radius Blast</t>
+  </si>
+  <si>
+    <t>Concert</t>
+  </si>
+  <si>
+    <t>Sword and Shield Casting (Up and Down Smash)</t>
+  </si>
+  <si>
+    <t>Great Sword Casting (Up and Down Smash)</t>
+  </si>
+  <si>
+    <t>Moonwalk</t>
+  </si>
+  <si>
+    <t>Guitar Rock Finisher (CUSTOM)</t>
+  </si>
+  <si>
+    <t>Guitar Playing (Harder)</t>
+  </si>
+  <si>
+    <t>Stun Cone</t>
   </si>
 </sst>
 </file>
@@ -298,8 +328,6 @@
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -314,6 +342,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -597,193 +627,219 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+      <c r="A16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
+      <c r="A17" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
+      <c r="A18" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
+      <c r="A19" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
+      <c r="A20" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Other Files/Character Animations.xlsx
+++ b/Other Files/Character Animations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ch0m5 Database\ch0m5\Documents\GitHub\TheWitcher\Other Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3497B24-2AE4-4849-9107-78E37A98829A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFF6361-ED08-4F7E-A5DF-95B530626C67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8805" yWindow="1680" windowWidth="22305" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,27 +42,9 @@
     <t>Heavy (Y+B)</t>
   </si>
   <si>
-    <t>One Hand Sword Combo (1)</t>
-  </si>
-  <si>
-    <t>One Hand Sword Combo (2)</t>
-  </si>
-  <si>
-    <t>One Hand Sword Combo (3)</t>
-  </si>
-  <si>
     <t>Potential Geralt Combos</t>
   </si>
   <si>
-    <t>Great Sword Slash (1)</t>
-  </si>
-  <si>
-    <t>Great Sword Slash (2)</t>
-  </si>
-  <si>
-    <t>Great Sword Slash (3)</t>
-  </si>
-  <si>
     <t>Standing Melee Attack 360 (Front)</t>
   </si>
   <si>
@@ -84,21 +66,6 @@
     <t>Sword and Shield Slash (Jump Only)</t>
   </si>
   <si>
-    <t>Standing Melee Attack (Down-&gt;Up)</t>
-  </si>
-  <si>
-    <t>Standing Melee Attack (Up-&gt;Down)</t>
-  </si>
-  <si>
-    <t>Sword and Shield Attack (Quick Tap)</t>
-  </si>
-  <si>
-    <t>Sword and Shield Slash (Right)</t>
-  </si>
-  <si>
-    <t>Sword and Shield Slash (Left)</t>
-  </si>
-  <si>
     <t>One Hand Club Combo (1)</t>
   </si>
   <si>
@@ -108,18 +75,6 @@
     <t>One Hand Club Combo (3)</t>
   </si>
   <si>
-    <t>Standing Melee Combo (Lateral - 1)</t>
-  </si>
-  <si>
-    <t>Standing Melee Combo (Heavy - 1)</t>
-  </si>
-  <si>
-    <t>Standing Melee Combo (Lateral - 2)</t>
-  </si>
-  <si>
-    <t>Standing Melee Combo (Heavy - 2)</t>
-  </si>
-  <si>
     <t>All current Great Sword ones (already added)</t>
   </si>
   <si>
@@ -135,22 +90,67 @@
     <t>Concert</t>
   </si>
   <si>
-    <t>Sword and Shield Casting (Up and Down Smash)</t>
-  </si>
-  <si>
-    <t>Great Sword Casting (Up and Down Smash)</t>
-  </si>
-  <si>
     <t>Moonwalk</t>
   </si>
   <si>
     <t>Guitar Rock Finisher (CUSTOM)</t>
   </si>
   <si>
-    <t>Guitar Playing (Harder)</t>
-  </si>
-  <si>
     <t>Stun Cone</t>
+  </si>
+  <si>
+    <t>Sword and Shield Downward Slash</t>
+  </si>
+  <si>
+    <t>One Handed Sword Combo Attack (1)</t>
+  </si>
+  <si>
+    <t>One Handed Sword Combo Attack (2)</t>
+  </si>
+  <si>
+    <t>One Handed Sword Combo Attack (3)</t>
+  </si>
+  <si>
+    <t>Great Sword Combo Slash (1)</t>
+  </si>
+  <si>
+    <t>Great Sword Combo Slash (2)</t>
+  </si>
+  <si>
+    <t>Great Sword Combo Slash (3)</t>
+  </si>
+  <si>
+    <t>Standing Melee Combo Attack Ver. 3 (1)</t>
+  </si>
+  <si>
+    <t>Standing Melee Combo Attack Ver. 3 (2)</t>
+  </si>
+  <si>
+    <t>Standing Melee Combo Attack Ver. 1 (1)</t>
+  </si>
+  <si>
+    <t>Standing Melee Combo Attack Ver. 1 (2)</t>
+  </si>
+  <si>
+    <t>Sword and Shield Cross Slash</t>
+  </si>
+  <si>
+    <t>Sword and Shield Hilt Melee</t>
+  </si>
+  <si>
+    <t>Backhanded Upward Attack With Axe</t>
+  </si>
+  <si>
+    <t>Downward Attack With Axe</t>
+  </si>
+  <si>
+    <t>Sword and Shield Casting (Sword Up and Down Smash)</t>
+  </si>
+  <si>
+    <t>Great Sword Casting (Sword Up and Down Smash)</t>
+  </si>
+  <si>
+    <t>Guitar Playing (Desc: Playing a Guitar)</t>
   </si>
 </sst>
 </file>
@@ -627,7 +627,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -637,13 +637,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -651,13 +651,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -665,13 +665,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -679,41 +679,41 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="12"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="9"/>
@@ -723,13 +723,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -737,13 +737,13 @@
         <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -751,13 +751,13 @@
         <v>3</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -765,18 +765,18 @@
         <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -784,45 +784,45 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="D20" s="3"/>
     </row>

--- a/Other Files/Character Animations.xlsx
+++ b/Other Files/Character Animations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ch0m5 Database\ch0m5\Documents\GitHub\TheWitcher\Other Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFF6361-ED08-4F7E-A5DF-95B530626C67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446D75F0-1B93-48D9-BA8A-280C4D51F7FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8805" yWindow="1680" windowWidth="22305" windowHeight="14400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>Geralt</t>
   </si>
@@ -45,12 +45,6 @@
     <t>Potential Geralt Combos</t>
   </si>
   <si>
-    <t>Standing Melee Attack 360 (Front)</t>
-  </si>
-  <si>
-    <t>Standing Melee Attack 360 (Down)</t>
-  </si>
-  <si>
     <t>1 (Right)</t>
   </si>
   <si>
@@ -60,12 +54,6 @@
     <t>3 (Right)</t>
   </si>
   <si>
-    <t>Sword and Shield Attack (Spin Only)</t>
-  </si>
-  <si>
-    <t>Sword and Shield Slash (Jump Only)</t>
-  </si>
-  <si>
     <t>One Hand Club Combo (1)</t>
   </si>
   <si>
@@ -135,15 +123,9 @@
     <t>Sword and Shield Cross Slash</t>
   </si>
   <si>
-    <t>Sword and Shield Hilt Melee</t>
-  </si>
-  <si>
     <t>Backhanded Upward Attack With Axe</t>
   </si>
   <si>
-    <t>Downward Attack With Axe</t>
-  </si>
-  <si>
     <t>Sword and Shield Casting (Sword Up and Down Smash)</t>
   </si>
   <si>
@@ -151,6 +133,21 @@
   </si>
   <si>
     <t>Guitar Playing (Desc: Playing a Guitar)</t>
+  </si>
+  <si>
+    <t>Standing Melee Attack 360 High</t>
+  </si>
+  <si>
+    <t>Alternative: Standing Melee Attack 360 High</t>
+  </si>
+  <si>
+    <t>Sword and Shield Power Slash</t>
+  </si>
+  <si>
+    <t>Sword and Shield Low Attack</t>
+  </si>
+  <si>
+    <t>Alternative: Downward Attack With Axe</t>
   </si>
 </sst>
 </file>
@@ -624,159 +621,160 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="47.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>6</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B7" s="14"/>
       <c r="C7" s="11"/>
       <c r="D7" s="12"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>7</v>
-      </c>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="9"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="14" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -784,45 +782,45 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D20" s="3"/>
     </row>
